--- a/doc/report/5060379078/Task_Plan_Yangwei_5060379078.xlsx
+++ b/doc/report/5060379078/Task_Plan_Yangwei_5060379078.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,51 +46,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工期/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24-08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.23-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.23-08:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.23-11:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.23-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究Fcollada人物静态模型载入、显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置Fcollada编译环境，查找运行Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25-08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25-15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.26-08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fcollada人物材质、贴图载入、并显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fcollada人物静态模型载入、显示</t>
-  </si>
-  <si>
-    <t>Fcollada人物材质、贴图载入、并显示</t>
-  </si>
-  <si>
-    <t>Fcollada人物骨骼层次结构关系载入，并用线段显示静态帧数据</t>
-  </si>
-  <si>
-    <t>Fcollada人物骨骼动画载入，并用线段显示动画</t>
-  </si>
-  <si>
-    <t>工期/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.25-13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.25-08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.24-08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.23-13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.23-08:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.26-13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.23-11:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.23-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +454,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -453,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -464,13 +480,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -478,13 +494,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -492,10 +508,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -508,41 +527,47 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
